--- a/styles.xlsx
+++ b/styles.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A1:XFD6"/>
@@ -521,37 +521,212 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>表述较为专业</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>教师的语言较为严谨和专业，能够清晰地阐述物理模型和问题。但在讲解过程中，可能语速较快，对于一些复杂概念的解释不够细致，可能会导致学生理解困难。建议放慢语速，增加一些对关键概念的详细解释，或通过举例等方式帮助学生更好地理解，同时可以适当增加一些互动环节，了解学生的掌握情况。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>2025-01-02 09:29:01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>assets/video/test.mp3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>test.mp3</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>本课程围绕物理相关内容展开，首先通过一个沉船打捞的简单模型进行分析，涉及打捞装置、沉船模型等物理要素；接着以质量为 1000 千克的封闭车厢为实例，讲述车厢内乘客通过实验研究车厢在水平地面上的运动，包括在车厢底面建立坐标系，以及质量为 5 克的物体 A 从静止开始运动，在特定时间段内其在 X 方向的速度等相关物理过程的探讨与研究。课程注重通过具体模型和实例来深入理解物理现象和规律。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>简洁明了，专业严谨</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>该教师风格较为沉稳，讲解过程逻辑清晰，能准确阐述物理问题和模型。但表述稍显平淡，可以适当增加一些生动的例子或比喻来帮助学生更好理解抽象概念。语速上可稍作调整，避免一直较快而使学生难以跟上节奏。提问互动环节略显不足，可适当增加与学生的互动交流，及时了解学生的掌握情况。</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-08 15:30:01</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>temp\test.mp3</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>本课程围绕物理模型与实际现象展开。先通过沉船打捞的简单模型，涉及温度、密度等物理量，分析相关物理过程。接着以质量为 1000 千克的封闭车厢为实例，讲述车厢内乘客通过实验研究车厢运动，以车厢底面上建立坐标系，研究质量为 5 克物体的运动，重点探讨在特定时间段内该物体在 X 方向的速度变化情况，从而深入理解物体在水平地面上的运动规律及其与物理模型之间的关联。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>流畅且逻辑清晰</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>该教师语言表达流畅自然，逻辑连贯，能清晰阐述观点。课堂风格较为理性客观，通过对比古今情况来论述书法的价值。建议增加一些具体事例或故事来增强趣味性，也可适当与学生互动，引导学生思考和发表看法，提升学生参与度，使课堂更加生动活泼。</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-08 15:31:57</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>temp\金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>首先阐述书法在中国古代文化中的重要地位及其在科举中的作用，接着指出当今数字时代儿童书法练习减少的现状及争议。强调不能忽视书法的持久价值和益处，学习书法能培养耐心、专注力和注重细节等能力，对生活多方面有积极影响，还能提供独特的自我表达形式。最后总结，尽管科技改变书写方式，但要认识到书法在社会中仍有巨大价值，练习书法在数字时代依然必要且相关。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>简洁流畅专业</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>该教师语言表达清晰准确，逻辑连贯，展现出专业的素养。教学风格比较理性客观，能深入阐述观点。建议可增加些互动环节，如提问学生对书法的看法，以调动学生积极性；还可多举些现实中的例子，让学生更好地理解书法在现代的价值，增强教学的趣味性和感染力。</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-08 15:37:08</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>assets/video\金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>首先阐述书法在中国古代文化中的重要地位及其在科举中的作用，接着指出当今数字时代儿童书法练习减少的现状及存在的争议。强调不能忽视书法的持久价值和益处，学习书法可培养耐心、专注力和注重细节等，这些技能能迁移并对生活各方面产生积极影响，如学业和创造力。还提到书法在数字世界中提供了独特的自我表达形式。最后得出结论，尽管科技改变了书写方式，但书法在社会中仍有巨大价值，练习书法在数字时代依然必要且相关。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>简洁流畅英语风</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>该教师语言表达清晰流畅，逻辑连贯，能很好地阐述观点。风格较为理性客观，用论据支撑自己对书法在现代社会价值的看法。建议可增加些与学生的互动，比如提问学生对书法的看法，引发学生思考；还可多举些实际例子，让学生更直观感受书法的魅力和意义，使课堂更生动活泼。</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-08 15:40:19</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>assets/video\金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>首先阐述了书法在中国古代文化中的重要地位及在当今数字时代面临的困境。接着强调尽管科技改变了书写方式，但不能忽视书法的持久价值和益处，学习书法可培养耐心、专注力和注重细节等，对生活多方面有积极影响。此外，书法在数字世界中提供了独特的自我表达方式。最后得出结论，虽电脑和手机改变了书写，但书法在社会中仍有巨大价值，练习书法在数字时代仍有必要和相关性。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>流畅自然清晰</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>该教师语言表达流畅，逻辑清晰。教学风格上，能客观阐述观点，先提出问题，再分析论述，有一定的启发性。建议可增加些具体事例或互动环节，使教学更生动，增强学生的参与感，进一步提升教学效果。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-01-08 15:41:19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>assets/video\金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>首先阐述书法在中国古代文化中的重要地位及如今面临的困境，引出对书法在当下是否还有价值的探讨。接着强调尽管科技改变了交流和书写方式，但学习书法能培养耐心、专注力和注重细节等，这些技能可迁移且对生活各方面有益，同时书法能在数字化世界中提供独特的自我表达形式。最后得出结论，尽管科技发展，但书法在社会中仍有巨大价值，练习书法在数字时代依然必要且相关。</t>
         </is>
       </c>
     </row>

--- a/styles.xlsx
+++ b/styles.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A1:XFD6"/>
@@ -696,37 +696,72 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>流畅自然清晰</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>该教师语言表达流畅，逻辑清晰。教学风格上，能客观阐述观点，先提出问题，再分析论述，有一定的启发性。建议可增加些具体事例或互动环节，使教学更生动，增强学生的参与感，进一步提升教学效果。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>2025-01-08 15:41:19</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>assets/video\金沙江小区 6.mp3</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>金沙江小区 6.mp3</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>首先阐述书法在中国古代文化中的重要地位及如今面临的困境，引出对书法在当下是否还有价值的探讨。接着强调尽管科技改变了交流和书写方式，但学习书法能培养耐心、专注力和注重细节等，这些技能可迁移且对生活各方面有益，同时书法能在数字化世界中提供独特的自我表达形式。最后得出结论，尽管科技发展，但书法在社会中仍有巨大价值，练习书法在数字时代依然必要且相关。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>流畅且富有条理</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>教师语言表达清晰流畅，逻辑连贯。教学风格比较理性客观，能辩证地阐述观点。先指出书法在古代的重要性及现今面临的状况，然后详细论述书法的价值和意义，最后得出结论。建议可增加些生动的例子或故事来增强趣味性，吸引学生注意力，也可适当与学生互动，引导学生参与讨论，提升课堂活跃度。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-01-08 16:15:34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>assets/video\金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>金沙江小区 6.mp3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>首先阐述了书法在中国古代文化中的重要地位及在当今数字时代面临的困境。接着提出尽管科技改变了交流和书写方式，但不能忽视书法的持久价值和益处，如培养耐心、专注力和注重细节等，且这些技能可迁移，对生活各方面有积极影响。还强调书法在数字世界中是独特的自我表达方式。最后得出结论，虽科技改变书写方式，但书法在社会中仍有巨大价值，练习书法在数字时代仍有必要。</t>
         </is>
       </c>
     </row>
